--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.794671333333334</v>
+        <v>7.821700333333332</v>
       </c>
       <c r="H2">
-        <v>17.384014</v>
+        <v>23.465101</v>
       </c>
       <c r="I2">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="J2">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N2">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O2">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P2">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q2">
-        <v>39.84208752721977</v>
+        <v>30.50031893588289</v>
       </c>
       <c r="R2">
-        <v>358.578787744978</v>
+        <v>274.502870422946</v>
       </c>
       <c r="S2">
-        <v>0.02414300379688513</v>
+        <v>0.01968673994585764</v>
       </c>
       <c r="T2">
-        <v>0.02414300379688513</v>
+        <v>0.01968673994585765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.794671333333334</v>
+        <v>7.821700333333332</v>
       </c>
       <c r="H3">
-        <v>17.384014</v>
+        <v>23.465101</v>
       </c>
       <c r="I3">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="J3">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.388999</v>
       </c>
       <c r="O3">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P3">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q3">
-        <v>4.614488006887334</v>
+        <v>6.228678091544333</v>
       </c>
       <c r="R3">
-        <v>41.530392061986</v>
+        <v>56.058102823899</v>
       </c>
       <c r="S3">
-        <v>0.002796229022760142</v>
+        <v>0.004020363395296563</v>
       </c>
       <c r="T3">
-        <v>0.002796229022760142</v>
+        <v>0.004020363395296564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.794671333333334</v>
+        <v>7.821700333333332</v>
       </c>
       <c r="H4">
-        <v>17.384014</v>
+        <v>23.465101</v>
       </c>
       <c r="I4">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="J4">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N4">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O4">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P4">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q4">
-        <v>4.169669719769556</v>
+        <v>2.106438651669</v>
       </c>
       <c r="R4">
-        <v>37.527027477926</v>
+        <v>18.957947865021</v>
       </c>
       <c r="S4">
-        <v>0.002526683668554706</v>
+        <v>0.001359622174262691</v>
       </c>
       <c r="T4">
-        <v>0.002526683668554706</v>
+        <v>0.001359622174262691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.794671333333334</v>
+        <v>7.821700333333332</v>
       </c>
       <c r="H5">
-        <v>17.384014</v>
+        <v>23.465101</v>
       </c>
       <c r="I5">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="J5">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N5">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O5">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P5">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q5">
-        <v>11.16538133323467</v>
+        <v>15.43224083000111</v>
       </c>
       <c r="R5">
-        <v>100.488431999112</v>
+        <v>138.89016747001</v>
       </c>
       <c r="S5">
-        <v>0.006765856426016579</v>
+        <v>0.009960896233273564</v>
       </c>
       <c r="T5">
-        <v>0.006765856426016579</v>
+        <v>0.009960896233273564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.794671333333334</v>
+        <v>7.821700333333332</v>
       </c>
       <c r="H6">
-        <v>17.384014</v>
+        <v>23.465101</v>
       </c>
       <c r="I6">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="J6">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N6">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O6">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P6">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q6">
-        <v>1.632571385882222</v>
+        <v>4.299101120579221</v>
       </c>
       <c r="R6">
-        <v>14.69314247294</v>
+        <v>38.69191008521299</v>
       </c>
       <c r="S6">
-        <v>0.0009892849399799246</v>
+        <v>0.002774898385151538</v>
       </c>
       <c r="T6">
-        <v>0.0009892849399799244</v>
+        <v>0.002774898385151539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.794671333333334</v>
+        <v>7.821700333333332</v>
       </c>
       <c r="H7">
-        <v>17.384014</v>
+        <v>23.465101</v>
       </c>
       <c r="I7">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="J7">
-        <v>0.040241067224651</v>
+        <v>0.0396880158209467</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N7">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O7">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P7">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q7">
-        <v>4.983782410960666</v>
+        <v>2.92116520902311</v>
       </c>
       <c r="R7">
-        <v>44.854041698646</v>
+        <v>26.29048688120799</v>
       </c>
       <c r="S7">
-        <v>0.003020009370454516</v>
+        <v>0.001885495687104695</v>
       </c>
       <c r="T7">
-        <v>0.003020009370454516</v>
+        <v>0.001885495687104696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>138.855</v>
       </c>
       <c r="I8">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="J8">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N8">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O8">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P8">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q8">
-        <v>318.2391053983333</v>
+        <v>180.4859815366667</v>
       </c>
       <c r="R8">
-        <v>2864.151948584999</v>
+        <v>1624.37383383</v>
       </c>
       <c r="S8">
-        <v>0.1928425041659817</v>
+        <v>0.1164965058186651</v>
       </c>
       <c r="T8">
-        <v>0.1928425041659817</v>
+        <v>0.1164965058186651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>138.855</v>
       </c>
       <c r="I9">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="J9">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.388999</v>
       </c>
       <c r="O9">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P9">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q9">
         <v>36.858272905</v>
@@ -1013,10 +1013,10 @@
         <v>331.724456145</v>
       </c>
       <c r="S9">
-        <v>0.02233490958735764</v>
+        <v>0.02379054576640878</v>
       </c>
       <c r="T9">
-        <v>0.02233490958735764</v>
+        <v>0.02379054576640878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>138.855</v>
       </c>
       <c r="I10">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="J10">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N10">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O10">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P10">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q10">
-        <v>33.30528202166666</v>
+        <v>12.464874495</v>
       </c>
       <c r="R10">
-        <v>299.747538195</v>
+        <v>112.183870455</v>
       </c>
       <c r="S10">
-        <v>0.02018191315292105</v>
+        <v>0.008045579561206492</v>
       </c>
       <c r="T10">
-        <v>0.02018191315292105</v>
+        <v>0.008045579561206492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>138.855</v>
       </c>
       <c r="I11">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="J11">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N11">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O11">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P11">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q11">
-        <v>89.18360425999998</v>
+        <v>91.32045928333334</v>
       </c>
       <c r="R11">
-        <v>802.6524383399999</v>
+        <v>821.88413355</v>
       </c>
       <c r="S11">
-        <v>0.05404235144049768</v>
+        <v>0.05894371588135082</v>
       </c>
       <c r="T11">
-        <v>0.05404235144049768</v>
+        <v>0.05894371588135082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>138.855</v>
       </c>
       <c r="I12">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="J12">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N12">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O12">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P12">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q12">
-        <v>13.04018161666667</v>
+        <v>25.43997940166666</v>
       </c>
       <c r="R12">
-        <v>117.36163455</v>
+        <v>228.959814615</v>
       </c>
       <c r="S12">
-        <v>0.007901924166703524</v>
+        <v>0.01642049251227246</v>
       </c>
       <c r="T12">
-        <v>0.007901924166703524</v>
+        <v>0.01642049251227246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>138.855</v>
       </c>
       <c r="I13">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="J13">
-        <v>0.3214259600503608</v>
+        <v>0.2348542815484815</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N13">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O13">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P13">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q13">
-        <v>39.80801595499999</v>
+        <v>17.28602809333333</v>
       </c>
       <c r="R13">
-        <v>358.2721435949999</v>
+        <v>155.57425284</v>
       </c>
       <c r="S13">
-        <v>0.02412235753689923</v>
+        <v>0.01115744200857787</v>
       </c>
       <c r="T13">
-        <v>0.02412235753689923</v>
+        <v>0.01115744200857787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.77882066666667</v>
+        <v>52.576215</v>
       </c>
       <c r="H14">
-        <v>125.336462</v>
+        <v>157.728645</v>
       </c>
       <c r="I14">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="J14">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N14">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O14">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P14">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q14">
-        <v>287.2562280124749</v>
+        <v>205.01825148013</v>
       </c>
       <c r="R14">
-        <v>2585.306052112274</v>
+        <v>1845.16426332117</v>
       </c>
       <c r="S14">
-        <v>0.1740678923725066</v>
+        <v>0.1323311080624584</v>
       </c>
       <c r="T14">
-        <v>0.1740678923725066</v>
+        <v>0.1323311080624584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.77882066666667</v>
+        <v>52.576215</v>
       </c>
       <c r="H15">
-        <v>125.336462</v>
+        <v>157.728645</v>
       </c>
       <c r="I15">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="J15">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.388999</v>
       </c>
       <c r="O15">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P15">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q15">
-        <v>33.26985359794867</v>
+        <v>41.868175019595</v>
       </c>
       <c r="R15">
-        <v>299.428682381538</v>
+        <v>376.813575176355</v>
       </c>
       <c r="S15">
-        <v>0.02016044468524206</v>
+        <v>0.02702423785636918</v>
       </c>
       <c r="T15">
-        <v>0.02016044468524206</v>
+        <v>0.02702423785636919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.77882066666667</v>
+        <v>52.576215</v>
       </c>
       <c r="H16">
-        <v>125.336462</v>
+        <v>157.728645</v>
       </c>
       <c r="I16">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="J16">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N16">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O16">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P16">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q16">
-        <v>30.06277206083978</v>
+        <v>14.159142733005</v>
       </c>
       <c r="R16">
-        <v>270.564948547558</v>
+        <v>127.432284597045</v>
       </c>
       <c r="S16">
-        <v>0.0182170580172006</v>
+        <v>0.009139162165055593</v>
       </c>
       <c r="T16">
-        <v>0.0182170580172006</v>
+        <v>0.009139162165055593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.77882066666667</v>
+        <v>52.576215</v>
       </c>
       <c r="H17">
-        <v>125.336462</v>
+        <v>157.728645</v>
       </c>
       <c r="I17">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="J17">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N17">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O17">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P17">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q17">
-        <v>80.50093569807733</v>
+        <v>103.73304744905</v>
       </c>
       <c r="R17">
-        <v>724.5084212826958</v>
+        <v>933.59742704145</v>
       </c>
       <c r="S17">
-        <v>0.04878093786837049</v>
+        <v>0.06695554670145436</v>
       </c>
       <c r="T17">
-        <v>0.04878093786837049</v>
+        <v>0.06695554670145436</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.77882066666667</v>
+        <v>52.576215</v>
       </c>
       <c r="H18">
-        <v>125.336462</v>
+        <v>157.728645</v>
       </c>
       <c r="I18">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="J18">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N18">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O18">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P18">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q18">
-        <v>11.77062567189111</v>
+        <v>28.89786813476499</v>
       </c>
       <c r="R18">
-        <v>105.93563104702</v>
+        <v>260.080813212885</v>
       </c>
       <c r="S18">
-        <v>0.007132614727931425</v>
+        <v>0.0186524218371206</v>
       </c>
       <c r="T18">
-        <v>0.007132614727931424</v>
+        <v>0.0186524218371206</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.77882066666667</v>
+        <v>52.576215</v>
       </c>
       <c r="H19">
-        <v>125.336462</v>
+        <v>157.728645</v>
       </c>
       <c r="I19">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="J19">
-        <v>0.2901328193271079</v>
+        <v>0.2667764761880414</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N19">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O19">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P19">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q19">
-        <v>35.93241783903533</v>
+        <v>19.63560396523999</v>
       </c>
       <c r="R19">
-        <v>323.391760551318</v>
+        <v>176.72043568716</v>
       </c>
       <c r="S19">
-        <v>0.02177387165585671</v>
+        <v>0.01267399956558327</v>
       </c>
       <c r="T19">
-        <v>0.02177387165585671</v>
+        <v>0.01267399956558328</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.289281666666666</v>
+        <v>6.393828</v>
       </c>
       <c r="H20">
-        <v>24.867845</v>
+        <v>19.181484</v>
       </c>
       <c r="I20">
-        <v>0.05756487669517529</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="J20">
-        <v>0.0575648766951753</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N20">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O20">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P20">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q20">
-        <v>56.99413594025721</v>
+        <v>24.932404069496</v>
       </c>
       <c r="R20">
-        <v>512.9472234623149</v>
+        <v>224.391636625464</v>
       </c>
       <c r="S20">
-        <v>0.03453658494841012</v>
+        <v>0.01609287287038012</v>
       </c>
       <c r="T20">
-        <v>0.03453658494841012</v>
+        <v>0.01609287287038012</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.289281666666666</v>
+        <v>6.393828</v>
       </c>
       <c r="H21">
-        <v>24.867845</v>
+        <v>19.181484</v>
       </c>
       <c r="I21">
-        <v>0.05756487669517529</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="J21">
-        <v>0.0575648766951753</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.388999</v>
       </c>
       <c r="O21">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P21">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q21">
-        <v>6.601028537461667</v>
+        <v>5.091616232724</v>
       </c>
       <c r="R21">
-        <v>59.409256837155</v>
+        <v>45.824546094516</v>
       </c>
       <c r="S21">
-        <v>0.004000007703773172</v>
+        <v>0.003286435295593516</v>
       </c>
       <c r="T21">
-        <v>0.004000007703773172</v>
+        <v>0.003286435295593517</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.289281666666666</v>
+        <v>6.393828</v>
       </c>
       <c r="H22">
-        <v>24.867845</v>
+        <v>19.181484</v>
       </c>
       <c r="I22">
-        <v>0.05756487669517529</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="J22">
-        <v>0.0575648766951753</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N22">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O22">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P22">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q22">
-        <v>5.964715645789444</v>
+        <v>1.721902637196</v>
       </c>
       <c r="R22">
-        <v>53.682440812105</v>
+        <v>15.497123734764</v>
       </c>
       <c r="S22">
-        <v>0.00361442287343129</v>
+        <v>0.001111419506852539</v>
       </c>
       <c r="T22">
-        <v>0.003614422873431291</v>
+        <v>0.001111419506852539</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.289281666666666</v>
+        <v>6.393828</v>
       </c>
       <c r="H23">
-        <v>24.867845</v>
+        <v>19.181484</v>
       </c>
       <c r="I23">
-        <v>0.05756487669517529</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="J23">
-        <v>0.0575648766951753</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N23">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O23">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P23">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q23">
-        <v>15.97208632947333</v>
+        <v>12.61504395676</v>
       </c>
       <c r="R23">
-        <v>143.74877696526</v>
+        <v>113.53539561084</v>
       </c>
       <c r="S23">
-        <v>0.009678562666506954</v>
+        <v>0.008142507962109226</v>
       </c>
       <c r="T23">
-        <v>0.009678562666506955</v>
+        <v>0.008142507962109226</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.289281666666666</v>
+        <v>6.393828</v>
       </c>
       <c r="H24">
-        <v>24.867845</v>
+        <v>19.181484</v>
       </c>
       <c r="I24">
-        <v>0.05756487669517529</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="J24">
-        <v>0.0575648766951753</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N24">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O24">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P24">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q24">
-        <v>2.335394585827778</v>
+        <v>3.514288702987999</v>
       </c>
       <c r="R24">
-        <v>21.01855127245</v>
+        <v>31.628598326892</v>
       </c>
       <c r="S24">
-        <v>0.001415172844905386</v>
+        <v>0.002268333256967872</v>
       </c>
       <c r="T24">
-        <v>0.001415172844905386</v>
+        <v>0.002268333256967873</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.289281666666666</v>
+        <v>6.393828</v>
       </c>
       <c r="H25">
-        <v>24.867845</v>
+        <v>19.181484</v>
       </c>
       <c r="I25">
-        <v>0.05756487669517529</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="J25">
-        <v>0.0575648766951753</v>
+        <v>0.03244286229414636</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N25">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O25">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P25">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q25">
-        <v>7.129304458078332</v>
+        <v>2.387898680608</v>
       </c>
       <c r="R25">
-        <v>64.16374012270499</v>
+        <v>21.491088125472</v>
       </c>
       <c r="S25">
-        <v>0.004320125658148369</v>
+        <v>0.00154129340224309</v>
       </c>
       <c r="T25">
-        <v>0.004320125658148369</v>
+        <v>0.00154129340224309</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.96982666666666</v>
+        <v>18.68123</v>
       </c>
       <c r="H26">
-        <v>47.90947999999999</v>
+        <v>56.04369</v>
       </c>
       <c r="I26">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="J26">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N26">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O26">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P26">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q26">
-        <v>109.8028162853289</v>
+        <v>72.84649741519333</v>
       </c>
       <c r="R26">
-        <v>988.2253465679598</v>
+        <v>655.61847673674</v>
       </c>
       <c r="S26">
-        <v>0.06653692050333093</v>
+        <v>0.04701950997936308</v>
       </c>
       <c r="T26">
-        <v>0.06653692050333095</v>
+        <v>0.04701950997936309</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.96982666666666</v>
+        <v>18.68123</v>
       </c>
       <c r="H27">
-        <v>47.90947999999999</v>
+        <v>56.04369</v>
       </c>
       <c r="I27">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="J27">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.388999</v>
       </c>
       <c r="O27">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P27">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q27">
-        <v>12.71729997894667</v>
+        <v>14.87647992959</v>
       </c>
       <c r="R27">
-        <v>114.45569981052</v>
+        <v>133.88831936631</v>
       </c>
       <c r="S27">
-        <v>0.007706268439575954</v>
+        <v>0.009602174728050311</v>
       </c>
       <c r="T27">
-        <v>0.007706268439575955</v>
+        <v>0.009602174728050311</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.96982666666666</v>
+        <v>18.68123</v>
       </c>
       <c r="H28">
-        <v>47.90947999999999</v>
+        <v>56.04369</v>
       </c>
       <c r="I28">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="J28">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N28">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O28">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P28">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q28">
-        <v>11.49140285125778</v>
+        <v>5.03098600761</v>
       </c>
       <c r="R28">
-        <v>103.42262566132</v>
+        <v>45.27887406849</v>
       </c>
       <c r="S28">
-        <v>0.006963414818059182</v>
+        <v>0.003247300902370045</v>
       </c>
       <c r="T28">
-        <v>0.006963414818059183</v>
+        <v>0.003247300902370045</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.96982666666666</v>
+        <v>18.68123</v>
       </c>
       <c r="H29">
-        <v>47.90947999999999</v>
+        <v>56.04369</v>
       </c>
       <c r="I29">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="J29">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N29">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O29">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P29">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q29">
-        <v>30.77123693509332</v>
+        <v>36.85812906076666</v>
       </c>
       <c r="R29">
-        <v>276.9411324158399</v>
+        <v>331.7231615469</v>
       </c>
       <c r="S29">
-        <v>0.01864636459249933</v>
+        <v>0.02379045292069066</v>
       </c>
       <c r="T29">
-        <v>0.01864636459249934</v>
+        <v>0.02379045292069066</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.96982666666666</v>
+        <v>18.68123</v>
       </c>
       <c r="H30">
-        <v>47.90947999999999</v>
+        <v>56.04369</v>
       </c>
       <c r="I30">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="J30">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N30">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O30">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P30">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q30">
-        <v>4.499285732311111</v>
+        <v>10.26790766766333</v>
       </c>
       <c r="R30">
-        <v>40.49357159079999</v>
+        <v>92.41116900896999</v>
       </c>
       <c r="S30">
-        <v>0.002726420206879112</v>
+        <v>0.006627525058551142</v>
       </c>
       <c r="T30">
-        <v>0.002726420206879112</v>
+        <v>0.006627525058551143</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.96982666666666</v>
+        <v>18.68123</v>
       </c>
       <c r="H31">
-        <v>47.90947999999999</v>
+        <v>56.04369</v>
       </c>
       <c r="I31">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="J31">
-        <v>0.110902384534324</v>
+        <v>0.0947902527836651</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N31">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O31">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P31">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q31">
-        <v>13.73505703241333</v>
+        <v>6.976866513946665</v>
       </c>
       <c r="R31">
-        <v>123.61551329172</v>
+        <v>62.79179862551999</v>
       </c>
       <c r="S31">
-        <v>0.008322995973979494</v>
+        <v>0.004503289194639843</v>
       </c>
       <c r="T31">
-        <v>0.008322995973979496</v>
+        <v>0.004503289194639843</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.88134733333334</v>
+        <v>65.32167833333334</v>
       </c>
       <c r="H32">
-        <v>77.64404200000001</v>
+        <v>195.965035</v>
       </c>
       <c r="I32">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="J32">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N32">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O32">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P32">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q32">
-        <v>177.9508873687705</v>
+        <v>254.7185314813456</v>
       </c>
       <c r="R32">
-        <v>1601.557986318934</v>
+        <v>2292.46678333211</v>
       </c>
       <c r="S32">
-        <v>0.1078324258604203</v>
+        <v>0.164410657449371</v>
       </c>
       <c r="T32">
-        <v>0.1078324258604203</v>
+        <v>0.164410657449371</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.88134733333334</v>
+        <v>65.32167833333334</v>
       </c>
       <c r="H33">
-        <v>77.64404200000001</v>
+        <v>195.965035</v>
       </c>
       <c r="I33">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="J33">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.388999</v>
       </c>
       <c r="O33">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P33">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q33">
-        <v>20.61017096599534</v>
+        <v>52.01780807221834</v>
       </c>
       <c r="R33">
-        <v>185.491538693958</v>
+        <v>468.160272649965</v>
       </c>
       <c r="S33">
-        <v>0.01248909047615858</v>
+        <v>0.03357542136605379</v>
       </c>
       <c r="T33">
-        <v>0.01248909047615858</v>
+        <v>0.03357542136605379</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.88134733333334</v>
+        <v>65.32167833333334</v>
       </c>
       <c r="H34">
-        <v>77.64404200000001</v>
+        <v>195.965035</v>
       </c>
       <c r="I34">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="J34">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N34">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O34">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P34">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q34">
-        <v>18.62343247353089</v>
+        <v>17.591585226915</v>
       </c>
       <c r="R34">
-        <v>167.610892261778</v>
+        <v>158.324267042235</v>
       </c>
       <c r="S34">
-        <v>0.01128519183670559</v>
+        <v>0.01135466695694872</v>
       </c>
       <c r="T34">
-        <v>0.01128519183670559</v>
+        <v>0.01135466695694872</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.88134733333334</v>
+        <v>65.32167833333334</v>
       </c>
       <c r="H35">
-        <v>77.64404200000001</v>
+        <v>195.965035</v>
       </c>
       <c r="I35">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="J35">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N35">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O35">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P35">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q35">
-        <v>49.86911177037067</v>
+        <v>128.8798890905945</v>
       </c>
       <c r="R35">
-        <v>448.822005933336</v>
+        <v>1159.91900181535</v>
       </c>
       <c r="S35">
-        <v>0.03021905300511155</v>
+        <v>0.08318683047581268</v>
       </c>
       <c r="T35">
-        <v>0.03021905300511155</v>
+        <v>0.08318683047581268</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.88134733333334</v>
+        <v>65.32167833333334</v>
       </c>
       <c r="H36">
-        <v>77.64404200000001</v>
+        <v>195.965035</v>
       </c>
       <c r="I36">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="J36">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N36">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O36">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P36">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q36">
-        <v>7.291724526535558</v>
+        <v>35.90325486188389</v>
       </c>
       <c r="R36">
-        <v>65.62552073882001</v>
+        <v>323.129293756955</v>
       </c>
       <c r="S36">
-        <v>0.00441854691498573</v>
+        <v>0.02317411969237485</v>
       </c>
       <c r="T36">
-        <v>0.00441854691498573</v>
+        <v>0.02317411969237486</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.88134733333334</v>
+        <v>65.32167833333334</v>
       </c>
       <c r="H37">
-        <v>77.64404200000001</v>
+        <v>195.965035</v>
       </c>
       <c r="I37">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="J37">
-        <v>0.179732892168381</v>
+        <v>0.3314481113647189</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N37">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O37">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P37">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q37">
-        <v>22.25958923154867</v>
+        <v>24.39564365936444</v>
       </c>
       <c r="R37">
-        <v>200.336303083938</v>
+        <v>219.56079293428</v>
       </c>
       <c r="S37">
-        <v>0.01348858407499925</v>
+        <v>0.01574641542415781</v>
       </c>
       <c r="T37">
-        <v>0.01348858407499925</v>
+        <v>0.01574641542415781</v>
       </c>
     </row>
   </sheetData>
